--- a/docs/Matrices.xlsx
+++ b/docs/Matrices.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="10728" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="10728" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="9" r:id="rId1"/>
@@ -499,10 +499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A4:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -510,7 +510,7 @@
     <col min="1" max="16384" width="4.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -523,12 +523,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -542,8 +545,17 @@
         <f>SUM(B3:D3)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -563,8 +575,23 @@
         <f t="shared" ref="F4:F5" si="0">SUM(B4:D4)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2">
         <v>6</v>
       </c>
@@ -578,13 +605,25 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="2">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="J6" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f>SUM(B3:B5)</f>
         <v>15</v>
@@ -817,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/docs/Matrices.xlsx
+++ b/docs/Matrices.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="10728" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="10728" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="9" r:id="rId1"/>
@@ -499,10 +499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -510,7 +510,7 @@
     <col min="1" max="16384" width="4.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -523,107 +523,68 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
         <f>SUM(B3:D3)</f>
         <v>15</v>
       </c>
-      <c r="I3" s="2">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2">
-        <v>9</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
         <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
       </c>
       <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
         <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:F5" si="0">SUM(B4:D4)</f>
         <v>15</v>
       </c>
-      <c r="H4" s="1">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2">
-        <v>7</v>
-      </c>
-      <c r="L4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I5" s="2">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="1">
         <v>9</v>
       </c>
-      <c r="J6" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f>SUM(B3:B5)</f>
         <v>15</v>
@@ -650,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -679,27 +640,27 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
         <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>7</v>
       </c>
       <c r="F4" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1">
         <f>SUM(C4:G4)</f>
@@ -708,25 +669,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
-        <v>16</v>
-      </c>
       <c r="D5" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2">
         <v>25</v>
       </c>
       <c r="F5" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1">
         <v>4</v>
-      </c>
-      <c r="H5" s="1">
-        <v>16</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ref="J5:J8" si="0">SUM(C5:G5)</f>
@@ -735,25 +696,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
         <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2">
-        <v>21</v>
       </c>
       <c r="E6" s="2">
         <v>13</v>
       </c>
       <c r="F6" s="2">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
         <v>5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1">
-        <v>21</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
@@ -762,25 +723,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
-        <v>22</v>
-      </c>
       <c r="D7" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1">
         <v>10</v>
-      </c>
-      <c r="H7" s="1">
-        <v>22</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
@@ -789,19 +750,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2">
         <v>19</v>
       </c>
       <c r="F8" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
@@ -810,10 +771,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="1">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1">
         <v>20</v>
-      </c>
-      <c r="F9" s="1">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">

--- a/docs/Matrices.xlsx
+++ b/docs/Matrices.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Bigsby\matrix.sum\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="10728" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="10728" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="9" r:id="rId1"/>
@@ -413,17 +413,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="4" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>0</v>
       </c>
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -448,7 +448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -459,7 +459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -505,12 +505,12 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="4.1015625" style="1"/>
+    <col min="1" max="16384" width="4.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -523,12 +523,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>4</v>
       </c>
@@ -543,7 +543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>8</v>
       </c>
@@ -579,12 +579,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <f>SUM(B3:B5)</f>
         <v>15</v>
@@ -611,16 +611,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="3.89453125" style="1"/>
+    <col min="1" max="16384" width="3.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>5</v>
       </c>
@@ -633,12 +633,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3" s="1">
         <v>6</v>
       </c>
@@ -646,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="2">
         <v>11</v>
       </c>
@@ -667,7 +667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>16</v>
       </c>
@@ -694,7 +694,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>21</v>
       </c>
@@ -721,7 +721,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>22</v>
       </c>
@@ -748,7 +748,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>23</v>
       </c>
@@ -769,7 +769,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>24</v>
       </c>
@@ -777,12 +777,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E10" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <f>SUM(C4:C8)</f>
         <v>65</v>
@@ -817,16 +817,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.3125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="4.3125" style="1"/>
+    <col min="1" max="16384" width="4.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>7</v>
       </c>
@@ -839,280 +837,280 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F3" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1">
         <v>9</v>
       </c>
       <c r="I4" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D5" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2">
         <v>41</v>
       </c>
       <c r="H5" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="N5" s="1">
         <f>SUM(D5:J5)</f>
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
-        <v>29</v>
-      </c>
       <c r="E6" s="2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2">
         <v>17</v>
       </c>
       <c r="H6" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J6" s="2">
+        <v>29</v>
+      </c>
+      <c r="K6" s="1">
         <v>5</v>
-      </c>
-      <c r="K6" s="1">
-        <v>29</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ref="N6:N11" si="0">SUM(D6:J6)</f>
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2">
-        <v>36</v>
-      </c>
       <c r="F7" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2">
         <v>49</v>
       </c>
       <c r="H7" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="2">
-        <v>30</v>
-      </c>
-      <c r="L7" s="1">
-        <v>36</v>
-      </c>
       <c r="N7" s="1">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2">
         <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2">
-        <v>43</v>
       </c>
       <c r="G8" s="2">
         <v>25</v>
       </c>
       <c r="H8" s="2">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2">
+        <v>37</v>
+      </c>
+      <c r="K8" s="1">
+        <v>13</v>
+      </c>
+      <c r="M8" s="1">
         <v>7</v>
       </c>
-      <c r="I8" s="2">
-        <v>31</v>
-      </c>
-      <c r="J8" s="2">
-        <v>13</v>
-      </c>
-      <c r="K8" s="1">
-        <v>37</v>
-      </c>
-      <c r="M8" s="1">
-        <v>43</v>
-      </c>
       <c r="N8" s="1">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2">
         <v>14</v>
       </c>
-      <c r="D9" s="2">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2">
-        <v>44</v>
-      </c>
       <c r="F9" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I9" s="2">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2">
+        <v>20</v>
+      </c>
+      <c r="L9" s="1">
         <v>14</v>
       </c>
-      <c r="J9" s="2">
-        <v>38</v>
-      </c>
-      <c r="L9" s="1">
-        <v>44</v>
-      </c>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2">
         <v>21</v>
       </c>
-      <c r="D10" s="2">
-        <v>45</v>
-      </c>
       <c r="E10" s="2">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2">
         <v>33</v>
       </c>
       <c r="H10" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I10" s="2">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J10" s="2">
+        <v>45</v>
+      </c>
+      <c r="K10" s="1">
         <v>21</v>
       </c>
-      <c r="K10" s="1">
-        <v>45</v>
-      </c>
       <c r="N10" s="1">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D11" s="2">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2">
         <v>9</v>
       </c>
       <c r="H11" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I11" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J11" s="2">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E12" s="1">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1">
         <v>41</v>
       </c>
       <c r="I12" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F13" s="1">
+        <v>48</v>
+      </c>
+      <c r="H13" s="1">
         <v>42</v>
       </c>
-      <c r="H13" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G14" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <f>SUM(D5:D11)</f>
         <v>175</v>
@@ -1159,12 +1157,12 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5234375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="4.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="4.5234375" style="1"/>
+    <col min="1" max="16384" width="4.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>9</v>
       </c>
@@ -1177,12 +1175,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H3" s="1">
         <v>2</v>
       </c>
@@ -1190,7 +1188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G4" s="1">
         <v>3</v>
       </c>
@@ -1201,7 +1199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F5" s="1">
         <v>4</v>
       </c>
@@ -1215,7 +1213,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E6" s="2">
         <v>5</v>
       </c>
@@ -1248,7 +1246,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <v>6</v>
       </c>
@@ -1287,7 +1285,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>7</v>
       </c>
@@ -1326,7 +1324,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -1371,7 +1369,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1416,7 +1414,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>18</v>
       </c>
@@ -1461,7 +1459,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>27</v>
       </c>
@@ -1500,7 +1498,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D13" s="1">
         <v>36</v>
       </c>
@@ -1539,7 +1537,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E14" s="2">
         <v>45</v>
       </c>
@@ -1572,7 +1570,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F15" s="1">
         <v>54</v>
       </c>
@@ -1586,7 +1584,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G16" s="1">
         <v>63</v>
       </c>
@@ -1597,7 +1595,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="5:18" x14ac:dyDescent="0.3">
       <c r="H17" s="1">
         <v>72</v>
       </c>
@@ -1605,12 +1603,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="5:18" x14ac:dyDescent="0.3">
       <c r="I18" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E19" s="1">
         <f>SUM(E6:E14)</f>
         <v>369</v>
@@ -1665,12 +1663,12 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="4.1015625" style="1"/>
+    <col min="1" max="16384" width="4.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>11</v>
       </c>
@@ -1683,12 +1681,12 @@
         <v>671</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="K2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="J3" s="1">
         <v>2</v>
       </c>
@@ -1696,7 +1694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="I4" s="1">
         <v>3</v>
       </c>
@@ -1707,7 +1705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H5" s="1">
         <v>4</v>
       </c>
@@ -1721,7 +1719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G6" s="1">
         <v>5</v>
       </c>
@@ -1738,7 +1736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F7" s="2">
         <v>6</v>
       </c>
@@ -1777,7 +1775,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E8" s="1">
         <v>7</v>
       </c>
@@ -1822,7 +1820,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>8</v>
       </c>
@@ -1867,7 +1865,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>9</v>
       </c>
@@ -1918,7 +1916,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -1969,7 +1967,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2026,7 +2024,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>22</v>
       </c>
@@ -2077,7 +2075,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>33</v>
       </c>
@@ -2128,7 +2126,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>44</v>
       </c>
@@ -2173,7 +2171,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E16" s="1">
         <v>55</v>
       </c>
@@ -2218,7 +2216,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="17" spans="6:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F17" s="2">
         <v>66</v>
       </c>
@@ -2257,7 +2255,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="18" spans="6:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="6:22" x14ac:dyDescent="0.3">
       <c r="G18" s="1">
         <v>77</v>
       </c>
@@ -2274,7 +2272,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="6:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="6:22" x14ac:dyDescent="0.3">
       <c r="H19" s="1">
         <v>88</v>
       </c>
@@ -2288,7 +2286,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="6:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="6:22" x14ac:dyDescent="0.3">
       <c r="I20" s="1">
         <v>99</v>
       </c>
@@ -2299,7 +2297,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="6:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="6:22" x14ac:dyDescent="0.3">
       <c r="J21" s="1">
         <v>110</v>
       </c>
@@ -2307,12 +2305,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="6:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="6:22" x14ac:dyDescent="0.3">
       <c r="K22" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="6:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F23" s="1">
         <f>SUM(F7:F17)</f>
         <v>671</v>
@@ -2375,12 +2373,12 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="4.89453125" style="1"/>
+    <col min="1" max="16384" width="4.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>13</v>
       </c>
@@ -2393,12 +2391,12 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="M2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="L3" s="1">
         <v>2</v>
       </c>
@@ -2406,7 +2404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="K4" s="1">
         <v>3</v>
       </c>
@@ -2417,7 +2415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J5" s="1">
         <v>4</v>
       </c>
@@ -2431,7 +2429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I6" s="1">
         <v>5</v>
       </c>
@@ -2448,7 +2446,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="H7" s="1">
         <v>6</v>
       </c>
@@ -2468,7 +2466,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="G8" s="2">
         <v>7</v>
       </c>
@@ -2513,7 +2511,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F9" s="1">
         <v>8</v>
       </c>
@@ -2564,7 +2562,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E10" s="1">
         <v>9</v>
       </c>
@@ -2615,7 +2613,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <v>10</v>
       </c>
@@ -2672,7 +2670,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>11</v>
       </c>
@@ -2729,7 +2727,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -2792,7 +2790,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2855,7 +2853,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>26</v>
       </c>
@@ -2918,7 +2916,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>39</v>
       </c>
@@ -2975,7 +2973,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="17" spans="4:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D17" s="1">
         <v>52</v>
       </c>
@@ -3032,7 +3030,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="18" spans="4:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="4:26" x14ac:dyDescent="0.3">
       <c r="E18" s="1">
         <v>65</v>
       </c>
@@ -3083,7 +3081,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="19" spans="4:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="4:26" x14ac:dyDescent="0.3">
       <c r="F19" s="1">
         <v>78</v>
       </c>
@@ -3134,7 +3132,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="20" spans="4:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:26" x14ac:dyDescent="0.3">
       <c r="G20" s="2">
         <v>91</v>
       </c>
@@ -3179,7 +3177,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="21" spans="4:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="4:26" x14ac:dyDescent="0.3">
       <c r="H21" s="1">
         <v>104</v>
       </c>
@@ -3199,7 +3197,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="4:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="4:26" x14ac:dyDescent="0.3">
       <c r="I22" s="1">
         <v>117</v>
       </c>
@@ -3216,7 +3214,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="4:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:26" x14ac:dyDescent="0.3">
       <c r="J23" s="1">
         <v>130</v>
       </c>
@@ -3230,7 +3228,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="4:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="4:26" x14ac:dyDescent="0.3">
       <c r="K24" s="1">
         <v>143</v>
       </c>
@@ -3241,7 +3239,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="4:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="4:26" x14ac:dyDescent="0.3">
       <c r="L25" s="1">
         <v>156</v>
       </c>
@@ -3249,12 +3247,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="4:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="4:26" x14ac:dyDescent="0.3">
       <c r="M26" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="4:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="4:26" x14ac:dyDescent="0.3">
       <c r="G27" s="1">
         <f>SUM(G8:G20)</f>
         <v>1105</v>
@@ -3325,12 +3323,12 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>15</v>
       </c>
@@ -3343,12 +3341,12 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="O2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="N3" s="1">
         <v>2</v>
       </c>
@@ -3356,7 +3354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="M4" s="1">
         <v>3</v>
       </c>
@@ -3367,7 +3365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="L5" s="1">
         <v>4</v>
       </c>
@@ -3381,7 +3379,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="K6" s="1">
         <v>5</v>
       </c>
@@ -3398,7 +3396,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="J7" s="1">
         <v>6</v>
       </c>
@@ -3418,7 +3416,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="I8" s="1">
         <v>7</v>
       </c>
@@ -3441,7 +3439,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="H9" s="2">
         <v>8</v>
       </c>
@@ -3492,7 +3490,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="G10" s="1">
         <v>9</v>
       </c>
@@ -3549,7 +3547,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="F11" s="1">
         <v>10</v>
       </c>
@@ -3606,7 +3604,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="E12" s="1">
         <v>11</v>
       </c>
@@ -3669,7 +3667,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D13" s="1">
         <v>12</v>
       </c>
@@ -3732,7 +3730,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>13</v>
       </c>
@@ -3801,7 +3799,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>14</v>
       </c>
@@ -3870,7 +3868,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3945,7 +3943,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>30</v>
       </c>
@@ -4014,7 +4012,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>45</v>
       </c>
@@ -4083,7 +4081,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>60</v>
       </c>
@@ -4146,7 +4144,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
       <c r="E20" s="1">
         <v>75</v>
       </c>
@@ -4209,7 +4207,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
       <c r="F21" s="1">
         <v>90</v>
       </c>
@@ -4266,7 +4264,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
       <c r="G22" s="1">
         <v>105</v>
       </c>
@@ -4323,7 +4321,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
       <c r="H23" s="2">
         <v>120</v>
       </c>
@@ -4374,7 +4372,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
       <c r="I24" s="1">
         <v>135</v>
       </c>
@@ -4397,7 +4395,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
       <c r="J25" s="1">
         <v>150</v>
       </c>
@@ -4417,7 +4415,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
       <c r="K26" s="1">
         <v>165</v>
       </c>
@@ -4434,7 +4432,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
       <c r="L27" s="1">
         <v>180</v>
       </c>
@@ -4448,7 +4446,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
       <c r="M28" s="1">
         <v>195</v>
       </c>
@@ -4459,7 +4457,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
       <c r="N29" s="1">
         <v>210</v>
       </c>
@@ -4467,12 +4465,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
       <c r="O30" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
       <c r="H31" s="1">
         <f>SUM(H9:H23)</f>
         <v>1695</v>
@@ -4551,12 +4549,12 @@
       <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>17</v>
       </c>
@@ -4569,12 +4567,12 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="Q2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="P3" s="1">
         <v>2</v>
       </c>
@@ -4582,7 +4580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="O4" s="1">
         <v>3</v>
       </c>
@@ -4593,7 +4591,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="N5" s="1">
         <v>4</v>
       </c>
@@ -4607,7 +4605,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="M6" s="1">
         <v>5</v>
       </c>
@@ -4624,7 +4622,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="L7" s="1">
         <v>6</v>
       </c>
@@ -4644,7 +4642,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="K8" s="1">
         <v>7</v>
       </c>
@@ -4667,7 +4665,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="J9" s="1">
         <v>8</v>
       </c>
@@ -4693,7 +4691,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I10" s="2">
         <v>9</v>
       </c>
@@ -4750,7 +4748,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="H11" s="1">
         <v>10</v>
       </c>
@@ -4813,7 +4811,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="G12" s="1">
         <v>11</v>
       </c>
@@ -4876,7 +4874,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="F13" s="1">
         <v>12</v>
       </c>
@@ -4945,7 +4943,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="E14" s="1">
         <v>13</v>
       </c>
@@ -5014,7 +5012,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>14</v>
       </c>
@@ -5089,7 +5087,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>15</v>
       </c>
@@ -5164,7 +5162,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -5245,7 +5243,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5326,7 +5324,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>34</v>
       </c>
@@ -5407,7 +5405,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>51</v>
       </c>
@@ -5482,7 +5480,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="D21" s="1">
         <v>68</v>
       </c>
@@ -5557,7 +5555,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="E22" s="1">
         <v>85</v>
       </c>
@@ -5626,7 +5624,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="F23" s="1">
         <v>102</v>
       </c>
@@ -5695,7 +5693,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="G24" s="1">
         <v>119</v>
       </c>
@@ -5758,7 +5756,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="H25" s="1">
         <v>136</v>
       </c>
@@ -5821,7 +5819,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I26" s="2">
         <v>153</v>
       </c>
@@ -5878,7 +5876,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="J27" s="1">
         <v>170</v>
       </c>
@@ -5904,7 +5902,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="K28" s="1">
         <v>187</v>
       </c>
@@ -5927,7 +5925,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="L29" s="1">
         <v>204</v>
       </c>
@@ -5947,7 +5945,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="M30" s="1">
         <v>221</v>
       </c>
@@ -5964,7 +5962,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="N31" s="1">
         <v>238</v>
       </c>
@@ -5978,7 +5976,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="O32" s="1">
         <v>255</v>
       </c>
@@ -5989,7 +5987,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="9:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="9:34" x14ac:dyDescent="0.3">
       <c r="P33" s="1">
         <v>272</v>
       </c>
@@ -5997,12 +5995,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="9:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="9:34" x14ac:dyDescent="0.3">
       <c r="Q34" s="1">
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="9:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="9:34" x14ac:dyDescent="0.3">
       <c r="I35" s="1">
         <f>SUM(I10:I26)</f>
         <v>2465</v>

--- a/docs/Matrices.xlsx
+++ b/docs/Matrices.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Bigsby\matrix.sum\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="10728" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="10728" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="9" r:id="rId1"/>
@@ -413,17 +413,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="16384" width="4" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1">
         <v>0</v>
       </c>
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -448,7 +448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -459,7 +459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -505,12 +505,12 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="4.109375" style="1"/>
+    <col min="1" max="16384" width="4.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -523,12 +523,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2">
         <v>4</v>
       </c>
@@ -543,7 +543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2">
         <v>8</v>
       </c>
@@ -579,12 +579,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f>SUM(B3:B5)</f>
         <v>15</v>
@@ -611,16 +611,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:U10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="3.88671875" style="1"/>
+    <col min="1" max="16384" width="3.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1">
         <v>5</v>
       </c>
@@ -633,12 +633,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" s="1">
         <v>6</v>
       </c>
@@ -646,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="2">
         <v>11</v>
       </c>
@@ -667,7 +667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <v>16</v>
       </c>
@@ -694,7 +694,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>21</v>
       </c>
@@ -721,7 +721,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <v>22</v>
       </c>
@@ -748,7 +748,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2">
         <v>23</v>
       </c>
@@ -769,7 +769,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="1">
         <v>24</v>
       </c>
@@ -777,12 +777,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="1">
         <f>SUM(C4:C8)</f>
         <v>65</v>
@@ -810,6 +810,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -817,14 +818,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.3125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="4.33203125" style="1"/>
+    <col min="1" max="1" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="4.3125" style="1"/>
+    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="16384" width="4.3125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1">
         <v>7</v>
       </c>
@@ -837,12 +843,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F3" s="1">
         <v>8</v>
       </c>
@@ -850,7 +856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E4" s="1">
         <v>15</v>
       </c>
@@ -861,7 +867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" s="2">
         <v>22</v>
       </c>
@@ -888,7 +894,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="1">
         <v>29</v>
       </c>
@@ -921,7 +927,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <v>36</v>
       </c>
@@ -954,7 +960,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>43</v>
       </c>
@@ -993,7 +999,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <v>44</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1">
         <v>45</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="2">
         <v>46</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="1">
         <v>47</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" s="1">
         <v>48</v>
       </c>
@@ -1105,12 +1111,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="1">
         <f>SUM(D5:D11)</f>
         <v>175</v>
@@ -1157,12 +1163,12 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.5234375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="4.5546875" style="1"/>
+    <col min="1" max="16384" width="4.5234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1">
         <v>9</v>
       </c>
@@ -1175,12 +1181,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H3" s="1">
         <v>2</v>
       </c>
@@ -1188,7 +1194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="G4" s="1">
         <v>3</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F5" s="1">
         <v>4</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="2">
         <v>5</v>
       </c>
@@ -1246,7 +1252,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="1">
         <v>6</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1">
         <v>7</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -1369,7 +1375,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <v>18</v>
       </c>
@@ -1459,7 +1465,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="1">
         <v>27</v>
       </c>
@@ -1498,7 +1504,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="1">
         <v>36</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" s="2">
         <v>45</v>
       </c>
@@ -1570,7 +1576,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" s="1">
         <v>54</v>
       </c>
@@ -1584,7 +1590,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" s="1">
         <v>63</v>
       </c>
@@ -1595,7 +1601,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H17" s="1">
         <v>72</v>
       </c>
@@ -1603,12 +1609,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I18" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="1">
         <f>SUM(E6:E14)</f>
         <v>369</v>
@@ -1663,12 +1669,12 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="4.109375" style="1"/>
+    <col min="1" max="16384" width="4.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1">
         <v>11</v>
       </c>
@@ -1681,12 +1687,12 @@
         <v>671</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="K2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="J3" s="1">
         <v>2</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="I4" s="1">
         <v>3</v>
       </c>
@@ -1705,7 +1711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="H5" s="1">
         <v>4</v>
       </c>
@@ -1719,7 +1725,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="1">
         <v>5</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="2">
         <v>6</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" s="1">
         <v>7</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="1">
         <v>8</v>
       </c>
@@ -1865,7 +1871,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1">
         <v>9</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <v>22</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1">
         <v>33</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="1">
         <v>44</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" s="1">
         <v>55</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="17" spans="6:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:22" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" s="2">
         <v>66</v>
       </c>
@@ -2255,7 +2261,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="18" spans="6:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:22" x14ac:dyDescent="0.55000000000000004">
       <c r="G18" s="1">
         <v>77</v>
       </c>
@@ -2272,7 +2278,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="6:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:22" x14ac:dyDescent="0.55000000000000004">
       <c r="H19" s="1">
         <v>88</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="6:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:22" x14ac:dyDescent="0.55000000000000004">
       <c r="I20" s="1">
         <v>99</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="6:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:22" x14ac:dyDescent="0.55000000000000004">
       <c r="J21" s="1">
         <v>110</v>
       </c>
@@ -2305,12 +2311,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="6:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:22" x14ac:dyDescent="0.55000000000000004">
       <c r="K22" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="6:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:22" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" s="1">
         <f>SUM(F7:F17)</f>
         <v>671</v>
@@ -2373,12 +2379,12 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="4.88671875" style="1"/>
+    <col min="1" max="16384" width="4.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1">
         <v>13</v>
       </c>
@@ -2391,12 +2397,12 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="M2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="L3" s="1">
         <v>2</v>
       </c>
@@ -2404,7 +2410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="K4" s="1">
         <v>3</v>
       </c>
@@ -2415,7 +2421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="J5" s="1">
         <v>4</v>
       </c>
@@ -2429,7 +2435,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="I6" s="1">
         <v>5</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="H7" s="1">
         <v>6</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="G8" s="2">
         <v>7</v>
       </c>
@@ -2511,7 +2517,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="F9" s="1">
         <v>8</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" s="1">
         <v>9</v>
       </c>
@@ -2613,7 +2619,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="1">
         <v>10</v>
       </c>
@@ -2670,7 +2676,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="1">
         <v>11</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -2790,7 +2796,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <v>26</v>
       </c>
@@ -2916,7 +2922,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1">
         <v>39</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="17" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:26" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="1">
         <v>52</v>
       </c>
@@ -3030,7 +3036,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="18" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:26" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" s="1">
         <v>65</v>
       </c>
@@ -3081,7 +3087,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="19" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:26" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" s="1">
         <v>78</v>
       </c>
@@ -3132,7 +3138,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="20" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:26" x14ac:dyDescent="0.55000000000000004">
       <c r="G20" s="2">
         <v>91</v>
       </c>
@@ -3177,7 +3183,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="21" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:26" x14ac:dyDescent="0.55000000000000004">
       <c r="H21" s="1">
         <v>104</v>
       </c>
@@ -3197,7 +3203,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:26" x14ac:dyDescent="0.55000000000000004">
       <c r="I22" s="1">
         <v>117</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:26" x14ac:dyDescent="0.55000000000000004">
       <c r="J23" s="1">
         <v>130</v>
       </c>
@@ -3228,7 +3234,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:26" x14ac:dyDescent="0.55000000000000004">
       <c r="K24" s="1">
         <v>143</v>
       </c>
@@ -3239,7 +3245,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:26" x14ac:dyDescent="0.55000000000000004">
       <c r="L25" s="1">
         <v>156</v>
       </c>
@@ -3247,12 +3253,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:26" x14ac:dyDescent="0.55000000000000004">
       <c r="M26" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:26" x14ac:dyDescent="0.55000000000000004">
       <c r="G27" s="1">
         <f>SUM(G8:G20)</f>
         <v>1105</v>
@@ -3319,16 +3325,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="16384" width="5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1">
         <v>15</v>
       </c>
@@ -3341,12 +3347,12 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="O2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="N3" s="1">
         <v>2</v>
       </c>
@@ -3354,7 +3360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="M4" s="1">
         <v>3</v>
       </c>
@@ -3365,7 +3371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="L5" s="1">
         <v>4</v>
       </c>
@@ -3379,7 +3385,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="K6" s="1">
         <v>5</v>
       </c>
@@ -3396,7 +3402,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="J7" s="1">
         <v>6</v>
       </c>
@@ -3416,7 +3422,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="I8" s="1">
         <v>7</v>
       </c>
@@ -3439,7 +3445,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="H9" s="2">
         <v>8</v>
       </c>
@@ -3490,7 +3496,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="G10" s="1">
         <v>9</v>
       </c>
@@ -3547,7 +3553,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" s="1">
         <v>10</v>
       </c>
@@ -3604,7 +3610,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="1">
         <v>11</v>
       </c>
@@ -3667,7 +3673,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="1">
         <v>12</v>
       </c>
@@ -3730,7 +3736,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1">
         <v>13</v>
       </c>
@@ -3799,7 +3805,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <v>14</v>
       </c>
@@ -3868,7 +3874,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3943,7 +3949,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <v>30</v>
       </c>
@@ -4012,7 +4018,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1">
         <v>45</v>
       </c>
@@ -4081,7 +4087,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="1">
         <v>60</v>
       </c>
@@ -4144,7 +4150,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="1">
         <v>75</v>
       </c>
@@ -4207,7 +4213,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F21" s="1">
         <v>90</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="G22" s="1">
         <v>105</v>
       </c>
@@ -4321,7 +4327,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="H23" s="2">
         <v>120</v>
       </c>
@@ -4372,7 +4378,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="I24" s="1">
         <v>135</v>
       </c>
@@ -4395,7 +4401,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="J25" s="1">
         <v>150</v>
       </c>
@@ -4415,7 +4421,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="K26" s="1">
         <v>165</v>
       </c>
@@ -4432,7 +4438,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="L27" s="1">
         <v>180</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="M28" s="1">
         <v>195</v>
       </c>
@@ -4457,7 +4463,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="N29" s="1">
         <v>210</v>
       </c>
@@ -4465,12 +4471,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="O30" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="H31" s="1">
         <f>SUM(H9:H23)</f>
         <v>1695</v>
@@ -4545,16 +4551,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="16384" width="5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1">
         <v>17</v>
       </c>
@@ -4567,12 +4573,12 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="Q2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="P3" s="1">
         <v>2</v>
       </c>
@@ -4580,7 +4586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="O4" s="1">
         <v>3</v>
       </c>
@@ -4591,7 +4597,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="N5" s="1">
         <v>4</v>
       </c>
@@ -4605,7 +4611,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="M6" s="1">
         <v>5</v>
       </c>
@@ -4622,7 +4628,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="L7" s="1">
         <v>6</v>
       </c>
@@ -4642,7 +4648,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="K8" s="1">
         <v>7</v>
       </c>
@@ -4665,7 +4671,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="J9" s="1">
         <v>8</v>
       </c>
@@ -4691,7 +4697,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="I10" s="2">
         <v>9</v>
       </c>
@@ -4748,7 +4754,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="H11" s="1">
         <v>10</v>
       </c>
@@ -4811,7 +4817,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="G12" s="1">
         <v>11</v>
       </c>
@@ -4874,7 +4880,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" s="1">
         <v>12</v>
       </c>
@@ -4943,7 +4949,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" s="1">
         <v>13</v>
       </c>
@@ -5012,7 +5018,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="1">
         <v>14</v>
       </c>
@@ -5087,7 +5093,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1">
         <v>15</v>
       </c>
@@ -5162,7 +5168,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -5243,7 +5249,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5324,7 +5330,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <v>34</v>
       </c>
@@ -5405,7 +5411,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="1">
         <v>51</v>
       </c>
@@ -5480,7 +5486,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="1">
         <v>68</v>
       </c>
@@ -5555,7 +5561,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="1">
         <v>85</v>
       </c>
@@ -5624,7 +5630,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" s="1">
         <v>102</v>
       </c>
@@ -5693,7 +5699,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="G24" s="1">
         <v>119</v>
       </c>
@@ -5756,7 +5762,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="H25" s="1">
         <v>136</v>
       </c>
@@ -5819,7 +5825,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="I26" s="2">
         <v>153</v>
       </c>
@@ -5876,7 +5882,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="J27" s="1">
         <v>170</v>
       </c>
@@ -5902,7 +5908,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="K28" s="1">
         <v>187</v>
       </c>
@@ -5925,7 +5931,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="L29" s="1">
         <v>204</v>
       </c>
@@ -5945,7 +5951,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="M30" s="1">
         <v>221</v>
       </c>
@@ -5962,7 +5968,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="N31" s="1">
         <v>238</v>
       </c>
@@ -5976,7 +5982,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="O32" s="1">
         <v>255</v>
       </c>
@@ -5987,7 +5993,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="9:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:34" x14ac:dyDescent="0.55000000000000004">
       <c r="P33" s="1">
         <v>272</v>
       </c>
@@ -5995,12 +6001,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="9:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:34" x14ac:dyDescent="0.55000000000000004">
       <c r="Q34" s="1">
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="9:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:34" x14ac:dyDescent="0.55000000000000004">
       <c r="I35" s="1">
         <f>SUM(I10:I26)</f>
         <v>2465</v>
